--- a/src/test/resources/test_data/hrm_data.xlsx
+++ b/src/test/resources/test_data/hrm_data.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="invalidlogintest" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="validlogintest" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +21,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ExpectedError</t>
+  </si>
+  <si>
+    <t>saul</t>
+  </si>
+  <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>saul1223</t>
+  </si>
+  <si>
+    <t>kim123</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>bala</t>
+  </si>
+  <si>
+    <t>bala123</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,10 +373,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/test_data/hrm_data.xlsx
+++ b/src/test/resources/test_data/hrm_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>bala123</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -387,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,14 +465,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/test_data/hrm_data.xlsx
+++ b/src/test/resources/test_data/hrm_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="invalidlogintest" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="validlogintest" sheetId="5" r:id="rId4"/>
+    <sheet name="validLoginTest" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
